--- a/hrm-generate/src/main/resources/社保数据.xlsx
+++ b/hrm-generate/src/main/resources/社保数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRM-Managent\hrm-parent\hrm-generate\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF7F1CB-0A13-4F6F-932E-6BC74A3850A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7138FC62-3407-4BB2-A3C1-FF31FAE8284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,22 @@
   </si>
   <si>
     <t>社保基数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参保类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户籍类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.socialSecurityType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.householdRegistrationType}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -436,7 +452,7 @@
     <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -464,8 +480,14 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -492,6 +514,12 @@
       </c>
       <c r="I2" t="s">
         <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/hrm-generate/src/main/resources/社保数据.xlsx
+++ b/hrm-generate/src/main/resources/社保数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRM-Managent\hrm-parent\hrm-generate\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7138FC62-3407-4BB2-A3C1-FF31FAE8284D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB20E05-7BB3-4CCE-831C-0C38838C4E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>社保城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.userId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{.socialSecurityBase}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +104,14 @@
   </si>
   <si>
     <t>{.householdRegistrationType}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.mobile}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -454,72 +454,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
